--- a/resource/PQSET.xlsx
+++ b/resource/PQSET.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaush\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\idl-datastructure\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1001E70A-4071-4E1F-A3AF-F90BEC712100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A012FEC-CC76-4DBD-8F9B-ED22294D7D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$472</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="504">
   <si>
     <t>Index</t>
   </si>
@@ -1549,6 +1552,15 @@
   </si>
   <si>
     <t>Reverse a Linked List</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
 </sst>
 </file>
@@ -2074,20 +2086,20 @@
   <dimension ref="A1:F472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="14.7" thickBot="1">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2134,9 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +2150,9 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>502</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2148,7 +2164,9 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>503</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
@@ -2214,7 +2232,9 @@
       <c r="A10" s="2">
         <v>13</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
@@ -7554,7 +7574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="431" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A431" s="2">
         <v>1834</v>
       </c>
@@ -7566,7 +7586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="432" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A432" s="2">
         <v>1882</v>
       </c>
@@ -7578,7 +7598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="433" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A433" s="2">
         <v>1885</v>
       </c>
@@ -7590,7 +7610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="434" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A434" s="2">
         <v>1937</v>
       </c>
@@ -7604,7 +7624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="435" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A435" s="2">
         <v>1986</v>
       </c>
@@ -7618,7 +7638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="436" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A436" s="2">
         <v>1996</v>
       </c>
@@ -7632,7 +7652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="437" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A437" s="2">
         <v>2007</v>
       </c>
@@ -7650,7 +7670,7 @@
       </c>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="438" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A438" s="2">
         <v>2013</v>
       </c>
@@ -7664,7 +7684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="439" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A439" s="2">
         <v>2018</v>
       </c>
@@ -7678,7 +7698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="440" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A440" s="2">
         <v>2034</v>
       </c>
@@ -7692,7 +7712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="441" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A441" s="2">
         <v>2035</v>
       </c>
@@ -7706,7 +7726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="442" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A442" s="2">
         <v>2092</v>
       </c>
@@ -7720,7 +7740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="443" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A443" s="2">
         <v>2096</v>
       </c>
@@ -7734,7 +7754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="444" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A444" s="2">
         <v>2101</v>
       </c>
@@ -7748,7 +7768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="445" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A445" s="2">
         <v>2115</v>
       </c>
@@ -7762,7 +7782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="446" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A446" s="2">
         <v>2127</v>
       </c>
@@ -7776,7 +7796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="447" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A447" s="2">
         <v>2128</v>
       </c>
@@ -7790,7 +7810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="448" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A448" s="2">
         <v>2132</v>
       </c>
@@ -7804,7 +7824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="449" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A449" s="2">
         <v>2135</v>
       </c>
@@ -7818,7 +7838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="450" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A450" s="2">
         <v>2158</v>
       </c>
@@ -7832,7 +7852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="451" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A451" s="2">
         <v>2162</v>
       </c>
@@ -7846,7 +7866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="452" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="452" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A452" s="2">
         <v>2171</v>
       </c>
@@ -7860,7 +7880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="453" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A453" s="2">
         <v>2172</v>
       </c>
@@ -7874,7 +7894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="454" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A454" s="2">
         <v>2178</v>
       </c>
@@ -7888,7 +7908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="455" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A455" s="2">
         <v>2184</v>
       </c>
@@ -7902,7 +7922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="456" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A456" s="2">
         <v>2185</v>
       </c>
@@ -7916,7 +7936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="457" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A457" s="2">
         <v>2188</v>
       </c>
@@ -7930,7 +7950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="458" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A458" s="2">
         <v>2224</v>
       </c>
@@ -7944,7 +7964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="459" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A459" s="2">
         <v>2235</v>
       </c>
@@ -7958,7 +7978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="460" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A460" s="2">
         <v>2242</v>
       </c>
@@ -7972,7 +7992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="461" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A461" s="2">
         <v>2250</v>
       </c>
@@ -7986,7 +8006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="462" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A462" s="2">
         <v>2258</v>
       </c>
@@ -8000,7 +8020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="463" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A463" s="2">
         <v>2271</v>
       </c>
@@ -8014,7 +8034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="464" spans="1:4" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A464" s="2">
         <v>2276</v>
       </c>
@@ -8028,7 +8048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="465" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A465" s="2">
         <v>2277</v>
       </c>
@@ -8042,7 +8062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="466" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A466" s="2">
         <v>2311</v>
       </c>
@@ -8056,7 +8076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="467" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A467" s="2">
         <v>2337</v>
       </c>
@@ -8086,7 +8106,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
     </row>
-    <row r="469" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="469" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A469" s="2">
         <v>2364</v>
       </c>
@@ -8104,7 +8124,7 @@
       </c>
       <c r="F469" s="4"/>
     </row>
-    <row r="470" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="470" spans="1:6" s="1" customFormat="1" ht="14.7" thickBot="1">
       <c r="A470" s="2">
         <v>2366</v>
       </c>
@@ -8139,6 +8159,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F472" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="C164" r:id="rId1" display="https://leetcode.com/problems/h-index" xr:uid="{84D0E8B7-5620-40E2-BC2F-D0FFC9A4147E}"/>
     <hyperlink ref="C174" r:id="rId2" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{7F6F26FE-4A79-4E65-9610-9789608E9082}"/>
